--- a/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2019 год.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2019 год.xlsx
@@ -9,20 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="9720" windowHeight="7320"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="9720" windowHeight="7320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Август" sheetId="1" r:id="rId1"/>
+    <sheet name="Сентябрь" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Август!$A$1:$E$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Сентябрь!$A$1:$E$55</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="72">
   <si>
     <t>Период использования оборудования для производства продукции</t>
   </si>
@@ -220,6 +222,24 @@
   </si>
   <si>
     <t>ИТОГО</t>
+  </si>
+  <si>
+    <t>06/09/2019 - 11/09/2019</t>
+  </si>
+  <si>
+    <t>01/09/2019 - 05/09/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Формокомплект банки 0,5 л "СКО" I-82-500   </t>
+  </si>
+  <si>
+    <t>01/09/2019 - 10/09/2019</t>
+  </si>
+  <si>
+    <t>11/09/2019 - 16/09/2019</t>
+  </si>
+  <si>
+    <t>01/09/2019 - 08/09/2019</t>
   </si>
 </sst>
 </file>
@@ -301,7 +321,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,6 +337,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,7 +409,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -443,6 +475,12 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -477,6 +515,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="5" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="5" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="5" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -789,7 +860,7 @@
   </sheetPr>
   <dimension ref="A2:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -809,17 +880,17 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -869,20 +940,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="33"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -1081,16 +1152,16 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="37" t="s">
+      <c r="A25" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="39" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D25" s="41">
         <v>3579390</v>
       </c>
       <c r="E25" s="26">
@@ -1098,12 +1169,12 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="38"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="40"/>
+      <c r="D26" s="42"/>
       <c r="E26" s="26">
         <v>578290</v>
       </c>
@@ -1449,11 +1520,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
       <c r="D47" s="28">
         <f>SUM(D17:D46)</f>
         <v>13479277</v>
@@ -1528,4 +1599,750 @@
     <brk id="5" max="34" man="1"/>
   </colBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:J54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="C2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="C3" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="C4" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="C5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="20"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>43738</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>1</v>
+      </c>
+      <c r="B16" s="11">
+        <v>2</v>
+      </c>
+      <c r="C16" s="11">
+        <v>3</v>
+      </c>
+      <c r="D16" s="11">
+        <v>4</v>
+      </c>
+      <c r="E16" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="48">
+        <v>1249024</v>
+      </c>
+      <c r="E19" s="28">
+        <v>1312507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="48">
+        <v>1405368</v>
+      </c>
+      <c r="E20" s="28">
+        <v>1447623</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="49">
+        <v>1512490</v>
+      </c>
+      <c r="E21" s="26">
+        <v>1647216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="46">
+        <v>1820497</v>
+      </c>
+      <c r="E22" s="47">
+        <v>1923608</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="52">
+        <v>1902690</v>
+      </c>
+      <c r="E25" s="50">
+        <v>1974470</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="18" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="51"/>
+    </row>
+    <row r="27" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="46">
+        <v>1311786</v>
+      </c>
+      <c r="E28" s="47">
+        <v>1468280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="46">
+        <v>413910</v>
+      </c>
+      <c r="E30" s="47">
+        <v>481049</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A33" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="46">
+        <v>629376</v>
+      </c>
+      <c r="E33" s="47">
+        <v>678476</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A34" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="49">
+        <v>1090954</v>
+      </c>
+      <c r="E36" s="26">
+        <v>1125850</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="46">
+        <v>1294320</v>
+      </c>
+      <c r="E37" s="47">
+        <v>1381590</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A38" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="46">
+        <v>790008</v>
+      </c>
+      <c r="E38" s="47">
+        <v>848880</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="21" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A39" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A40" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="46">
+        <v>332940</v>
+      </c>
+      <c r="E40" s="47">
+        <v>437340</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A41" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A42" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A43" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="46">
+        <v>935640</v>
+      </c>
+      <c r="E43" s="47">
+        <v>978661</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A44" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="46">
+        <v>938764</v>
+      </c>
+      <c r="E44" s="47">
+        <v>991587</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A45" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A46" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A47" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="28">
+        <f>SUM(D17:D46)</f>
+        <v>15627767</v>
+      </c>
+      <c r="E47" s="28">
+        <f>SUM(E17:E46)</f>
+        <v>16697137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="17"/>
+    </row>
+    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="13"/>
+    </row>
+    <row r="51" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
+    </row>
+    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:D26"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="5" max="34" man="1"/>
+  </colBreaks>
+</worksheet>
 </file>
--- a/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2019 год.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2019 год.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="73">
   <si>
     <t>Период использования оборудования для производства продукции</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>01/09/2019 - 08/09/2019</t>
+  </si>
+  <si>
+    <t>12/09/2019 - 17/09/2019</t>
   </si>
 </sst>
 </file>
@@ -409,7 +412,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -481,6 +484,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="5" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -515,27 +542,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="5" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -880,17 +886,17 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="33"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -940,20 +946,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="35"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -1152,16 +1158,16 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="39" t="s">
+      <c r="A25" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="41">
+      <c r="D25" s="49">
         <v>3579390</v>
       </c>
       <c r="E25" s="26">
@@ -1169,12 +1175,12 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
-      <c r="B26" s="40"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="42"/>
+      <c r="D26" s="50"/>
       <c r="E26" s="26">
         <v>578290</v>
       </c>
@@ -1520,11 +1526,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="36" t="s">
+      <c r="A47" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
       <c r="D47" s="28">
         <f>SUM(D17:D46)</f>
         <v>13479277</v>
@@ -1608,8 +1614,8 @@
   </sheetPr>
   <dimension ref="A2:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1629,17 +1635,17 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="33"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -1689,20 +1695,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="35"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -1765,36 +1771,36 @@
       </c>
     </row>
     <row r="17" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="44" t="s">
+      <c r="A17" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="45" t="s">
+      <c r="C17" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="34" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="44" t="s">
+      <c r="A18" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="45" t="s">
+      <c r="C18" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="34" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1808,7 +1814,7 @@
       <c r="C19" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="37">
         <v>1249024</v>
       </c>
       <c r="E19" s="28">
@@ -1825,7 +1831,7 @@
       <c r="C20" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="37">
         <v>1405368</v>
       </c>
       <c r="E20" s="28">
@@ -1842,7 +1848,7 @@
       <c r="C21" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="49">
+      <c r="D21" s="38">
         <v>1512490</v>
       </c>
       <c r="E21" s="26">
@@ -1850,230 +1856,230 @@
       </c>
     </row>
     <row r="22" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="44" t="s">
+      <c r="A22" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="46">
+      <c r="D22" s="35">
         <v>1820497</v>
       </c>
-      <c r="E22" s="47">
+      <c r="E22" s="36">
         <v>1923608</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="44" t="s">
+      <c r="A23" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="45" t="s">
+      <c r="C23" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="34" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="44" t="s">
+      <c r="A24" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="45" t="s">
+      <c r="C24" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="34" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="39" t="s">
+      <c r="A25" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="52">
+      <c r="D25" s="53">
         <v>1902690</v>
       </c>
-      <c r="E25" s="50">
+      <c r="E25" s="51">
         <v>1974470</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="51"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="52"/>
     </row>
     <row r="27" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="44" t="s">
+      <c r="A27" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="45" t="s">
+      <c r="C27" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="34" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="44" t="s">
+      <c r="A28" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="46">
+      <c r="D28" s="35">
         <v>1311786</v>
       </c>
-      <c r="E28" s="47">
+      <c r="E28" s="36">
         <v>1468280</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="44" t="s">
+      <c r="A29" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="45" t="s">
-        <v>58</v>
+      <c r="C29" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="28">
+        <v>767502</v>
+      </c>
+      <c r="E29" s="28">
+        <v>825840</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="44" t="s">
+      <c r="A30" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="46">
+      <c r="D30" s="35">
         <v>413910</v>
       </c>
-      <c r="E30" s="47">
+      <c r="E30" s="36">
         <v>481049</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="44" t="s">
+      <c r="A31" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="45" t="s">
+      <c r="C31" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="34" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="44" t="s">
+      <c r="A32" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="45" t="s">
+      <c r="C32" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="34" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="44" t="s">
+      <c r="A33" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="46">
+      <c r="D33" s="35">
         <v>629376</v>
       </c>
-      <c r="E33" s="47">
+      <c r="E33" s="36">
         <v>678476</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="44" t="s">
+      <c r="A34" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="45" t="s">
+      <c r="C34" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="34" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="44" t="s">
+      <c r="A35" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="45" t="s">
+      <c r="C35" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="34" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2087,7 +2093,7 @@
       <c r="C36" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="49">
+      <c r="D36" s="38">
         <v>1090954</v>
       </c>
       <c r="E36" s="26">
@@ -2095,188 +2101,188 @@
       </c>
     </row>
     <row r="37" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="44" t="s">
+      <c r="A37" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="46">
+      <c r="D37" s="35">
         <v>1294320</v>
       </c>
-      <c r="E37" s="47">
+      <c r="E37" s="36">
         <v>1381590</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="44" t="s">
+      <c r="A38" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="46">
+      <c r="D38" s="35">
         <v>790008</v>
       </c>
-      <c r="E38" s="47">
+      <c r="E38" s="36">
         <v>848880</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="21" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="44" t="s">
+      <c r="A39" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="45" t="s">
+      <c r="C39" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="34" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="44" t="s">
+      <c r="A40" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="C40" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="46">
+      <c r="D40" s="35">
         <v>332940</v>
       </c>
-      <c r="E40" s="47">
+      <c r="E40" s="36">
         <v>437340</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="44" t="s">
+      <c r="A41" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="45" t="s">
+      <c r="C41" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="34" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="44" t="s">
+      <c r="A42" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" s="45" t="s">
+      <c r="C42" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="34" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="44" t="s">
+      <c r="A43" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="43" t="s">
+      <c r="C43" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="46">
+      <c r="D43" s="35">
         <v>935640</v>
       </c>
-      <c r="E43" s="47">
+      <c r="E43" s="36">
         <v>978661</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="44" t="s">
+      <c r="A44" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="43" t="s">
+      <c r="C44" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="46">
+      <c r="D44" s="35">
         <v>938764</v>
       </c>
-      <c r="E44" s="47">
+      <c r="E44" s="36">
         <v>991587</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="44" t="s">
+      <c r="A45" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45" s="45" t="s">
+      <c r="C45" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="34" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="44" t="s">
+      <c r="A46" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="E46" s="45" t="s">
+      <c r="C46" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="34" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="36" t="s">
+      <c r="A47" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
       <c r="D47" s="28">
         <f>SUM(D17:D46)</f>
-        <v>15627767</v>
+        <v>16395269</v>
       </c>
       <c r="E47" s="28">
         <f>SUM(E17:E46)</f>
-        <v>16697137</v>
+        <v>17522977</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">

--- a/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2019 год.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2019 год.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="81">
   <si>
     <t>Период использования оборудования для производства продукции</t>
   </si>
@@ -243,6 +243,50 @@
   </si>
   <si>
     <t>12/09/2019 - 17/09/2019</t>
+  </si>
+  <si>
+    <t>18/09/2019 - 23/09/2019</t>
+  </si>
+  <si>
+    <t>16/09/2019 - 19/09/2019</t>
+  </si>
+  <si>
+    <r>
+      <t>Формокомплект бутылки «</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Кристалл Фирменная 2, 0.7 л.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>» тип XХI-B-28-2.1б-700</t>
+    </r>
+  </si>
+  <si>
+    <t>Формокомплект бутылки «Белоруская коллекция 0,5» тип XХI-П-25-500-1</t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки «Раковщик 0,2»                     тип XХI-В-28-1.1-200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   </t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки «Иван Купала 0,5»                 тип XХI-В-30-4-500-3</t>
+  </si>
+  <si>
+    <t>20/09/2019 - 23/09/2019</t>
   </si>
 </sst>
 </file>
@@ -252,7 +296,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -323,8 +367,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,6 +402,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,7 +468,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -508,6 +564,9 @@
     <xf numFmtId="3" fontId="7" fillId="5" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -554,6 +613,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="5" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="6" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -886,17 +951,17 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -946,20 +1011,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="43"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -1158,16 +1223,16 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="47" t="s">
+      <c r="A25" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="48" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="49">
+      <c r="D25" s="50">
         <v>3579390</v>
       </c>
       <c r="E25" s="26">
@@ -1175,12 +1240,12 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
-      <c r="B26" s="48"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="50"/>
+      <c r="D26" s="51"/>
       <c r="E26" s="26">
         <v>578290</v>
       </c>
@@ -1526,11 +1591,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="44" t="s">
+      <c r="A47" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
       <c r="D47" s="28">
         <f>SUM(D17:D46)</f>
         <v>13479277</v>
@@ -1614,14 +1679,14 @@
   </sheetPr>
   <dimension ref="A2:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1"/>
     <col min="3" max="3" width="23.5546875" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
@@ -1635,17 +1700,17 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -1695,20 +1760,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="43"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -1907,28 +1972,28 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="47" t="s">
+      <c r="A25" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="53">
+      <c r="D25" s="54">
         <v>1902690</v>
       </c>
-      <c r="E25" s="51">
+      <c r="E25" s="52">
         <v>1974470</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="52"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="53"/>
     </row>
     <row r="27" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
@@ -1969,12 +2034,12 @@
         <v>10</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C29" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="28">
+      <c r="D29" s="56">
         <v>767502</v>
       </c>
       <c r="E29" s="28">
@@ -1982,20 +2047,20 @@
       </c>
     </row>
     <row r="30" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="33" t="s">
+      <c r="A30" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="35">
-        <v>413910</v>
-      </c>
-      <c r="E30" s="36">
-        <v>481049</v>
+      <c r="C30" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="57">
+        <v>442890</v>
+      </c>
+      <c r="E30" s="26">
+        <v>496706</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -2037,7 +2102,7 @@
         <v>10</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="C33" s="32" t="s">
         <v>57</v>
@@ -2054,10 +2119,10 @@
         <v>10</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D34" s="34" t="s">
         <v>58</v>
@@ -2135,20 +2200,20 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="21" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="33" t="s">
+      <c r="A39" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="34" t="s">
-        <v>58</v>
+      <c r="C39" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="56">
+        <v>936858</v>
+      </c>
+      <c r="E39" s="28">
+        <v>1010437</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -2186,20 +2251,20 @@
       </c>
     </row>
     <row r="42" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" s="34" t="s">
-        <v>58</v>
+      <c r="A42" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="37">
+        <v>416988</v>
+      </c>
+      <c r="E42" s="28">
+        <v>448450</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -2271,18 +2336,18 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="44" t="s">
+      <c r="A47" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
       <c r="D47" s="28">
         <f>SUM(D17:D46)</f>
-        <v>16395269</v>
+        <v>17778095</v>
       </c>
       <c r="E47" s="28">
         <f>SUM(E17:E46)</f>
-        <v>17522977</v>
+        <v>18997521</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">

--- a/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2019 год.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2019 год.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="104">
   <si>
     <t>Период использования оборудования для производства продукции</t>
   </si>
@@ -274,19 +274,88 @@
     </r>
   </si>
   <si>
-    <t>Формокомплект бутылки «Белоруская коллекция 0,5» тип XХI-П-25-500-1</t>
-  </si>
-  <si>
-    <t>Формокомплект бутылки «Раковщик 0,2»                     тип XХI-В-28-1.1-200</t>
-  </si>
-  <si>
     <t xml:space="preserve">                   </t>
   </si>
   <si>
-    <t>Формокомплект бутылки «Иван Купала 0,5»                 тип XХI-В-30-4-500-3</t>
-  </si>
-  <si>
     <t>20/09/2019 - 23/09/2019</t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки «ГОСТ» тип ХХI-В-28-1-500-13</t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки «Калина 0,5»                                   тип XХI-В-28-2-500-28</t>
+  </si>
+  <si>
+    <t>24/09/2019 - 30/09/2019</t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки «Калина 0,35»                                тип XХI-В-28-2-350-1 Часть 1</t>
+  </si>
+  <si>
+    <t>23/09/2019 - 30/09/2019</t>
+  </si>
+  <si>
+    <t>Формокомплект банки  0,45 л        тип III-2-82-450-1</t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки «Калина 0,35»                                 тип XХI-В-28-2-350-1 Часть 2</t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки «Кристалл Фирменная 2 0,5»         тип XХI-B-28-2.1в-500-1</t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки         «Фляга 0,2»                                  тип XIII-B-28-2-200-3</t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки      «Фляга 0,2»                                     тип XIII-B-28-2.1в-200-1</t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки      «Фляга 0,5»                                  тип XIII-B-28-2-500-4</t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки      «Сваяк 0,7»                                 тип XХI-КПМ-30-1-700</t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки      «Кепил 0,5»                                 тип XХI-B-28-2-500-29</t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки «Белоруская коллекция 0,5»     тип XХI-П-25-500-1</t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки «Раковщик 0,2»                          тип XХI-В-28-1.1-200</t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки     «Сябры 0,5»                                    тип XХI-B-28-2.1-500-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Формокомплект банки  1,5 л   СКО                                              тип I-82-1500-1</t>
+  </si>
+  <si>
+    <t>Формокомплект банки  1,5 л   TWIST                                           тип III-2-82-1500-1</t>
+  </si>
+  <si>
+    <t>Формокомплект банки  0,3 л   TWIST                                           тип III-4-66-1-300-1</t>
+  </si>
+  <si>
+    <t>Формокомплект банки  0,9 л   TWIST                                           тип III-2-82-900-1</t>
+  </si>
+  <si>
+    <t>17/09/2019 - 30/09/2019 (новый ф-т)</t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки   «Мерная 0,5»                               тип XХI-КПА-30-500-5</t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки       «Иван Купала 0,5»                                 тип XХI-В-30-4-500-3</t>
+  </si>
+  <si>
+    <t>УТВЕРЖДАЮ:</t>
+  </si>
+  <si>
+    <t>Директор</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _______________В.Н. Сенкевич</t>
   </si>
 </sst>
 </file>
@@ -374,7 +443,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,24 +459,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,7 +519,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -534,57 +585,42 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="5" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -601,24 +637,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="5" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="5" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="6" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -951,17 +969,17 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -1011,20 +1029,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="44"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -1086,7 +1104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="18" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>10</v>
       </c>
@@ -1137,7 +1155,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="18" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>10</v>
       </c>
@@ -1171,7 +1189,7 @@
         <v>293466</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="18" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>10</v>
       </c>
@@ -1188,7 +1206,7 @@
         <v>1923608</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="18" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>10</v>
       </c>
@@ -1205,7 +1223,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="18" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>10</v>
       </c>
@@ -1223,16 +1241,16 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="48" t="s">
+      <c r="A25" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="43" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="50">
+      <c r="D25" s="45">
         <v>3579390</v>
       </c>
       <c r="E25" s="26">
@@ -1240,12 +1258,12 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="49"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="51"/>
+      <c r="D26" s="46"/>
       <c r="E26" s="26">
         <v>578290</v>
       </c>
@@ -1284,7 +1302,7 @@
         <v>1468280</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="18" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>10</v>
       </c>
@@ -1352,7 +1370,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="18" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>10</v>
       </c>
@@ -1591,11 +1609,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
       <c r="D47" s="28">
         <f>SUM(D17:D46)</f>
         <v>13479277</v>
@@ -1664,7 +1682,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="5" max="34" man="1"/>
@@ -1679,14 +1697,14 @@
   </sheetPr>
   <dimension ref="A2:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
     <col min="3" max="3" width="23.5546875" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
@@ -1694,30 +1712,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C2" s="7" t="s">
-        <v>39</v>
+      <c r="D2" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C3" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="D3" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C4" s="42" t="s">
+      <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="42"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="20"/>
+      <c r="D5" s="7" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F7" s="1"/>
@@ -1729,7 +1744,7 @@
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="29" t="s">
+      <c r="E8" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1760,20 +1775,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="44"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -1801,7 +1816,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>4</v>
       </c>
@@ -1836,50 +1851,50 @@
       </c>
     </row>
     <row r="17" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="34" t="s">
+      <c r="A17" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="27" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>58</v>
+      <c r="A18" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="28">
+        <v>1188432</v>
+      </c>
+      <c r="E18" s="28">
+        <v>1243584</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D19" s="28">
         <v>1249024</v>
       </c>
       <c r="E19" s="28">
@@ -1887,7 +1902,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="24" t="s">
@@ -1896,7 +1911,7 @@
       <c r="C20" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="28">
         <v>1405368</v>
       </c>
       <c r="E20" s="28">
@@ -1904,16 +1919,16 @@
       </c>
     </row>
     <row r="21" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="25">
         <v>1512490</v>
       </c>
       <c r="E21" s="26">
@@ -1921,116 +1936,122 @@
       </c>
     </row>
     <row r="22" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="35">
-        <v>1820497</v>
-      </c>
-      <c r="E22" s="36">
-        <v>1923608</v>
+      <c r="A22" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="25">
+        <v>1542618</v>
+      </c>
+      <c r="E22" s="26">
+        <v>1630498</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="34" t="s">
+      <c r="A23" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="27" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="34" t="s">
+      <c r="A24" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="27" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="46" t="s">
+      <c r="A25" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="54">
+      <c r="D25" s="32">
         <v>1902690</v>
       </c>
-      <c r="E25" s="52">
+      <c r="E25" s="31">
         <v>1974470</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="18" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="53"/>
+    <row r="26" spans="1:5" s="18" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="42"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="32">
+        <v>2566080</v>
+      </c>
+      <c r="E26" s="31">
+        <v>2733394</v>
+      </c>
     </row>
     <row r="27" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="34" t="s">
+      <c r="A27" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="27" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="35">
-        <v>1311786</v>
-      </c>
-      <c r="E28" s="36">
-        <v>1468280</v>
+      <c r="A28" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="24" t="s">
@@ -2039,24 +2060,24 @@
       <c r="C29" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="56">
-        <v>767502</v>
+      <c r="D29" s="28">
+        <v>777288</v>
       </c>
       <c r="E29" s="28">
         <v>825840</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="57">
+      <c r="D30" s="25">
         <v>442890</v>
       </c>
       <c r="E30" s="26">
@@ -2064,101 +2085,101 @@
       </c>
     </row>
     <row r="31" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="33" t="s">
+      <c r="A31" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="34" t="s">
+      <c r="C31" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="27" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="34" t="s">
+      <c r="A32" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="27" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="33" t="s">
+      <c r="A33" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="35">
-        <v>629376</v>
-      </c>
-      <c r="E33" s="36">
-        <v>678476</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A34" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="34" t="s">
+      <c r="D34" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="27" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="34" t="s">
+      <c r="A35" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="27" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="38">
+      <c r="D36" s="25">
         <v>1090954</v>
       </c>
       <c r="E36" s="26">
@@ -2166,41 +2187,41 @@
       </c>
     </row>
     <row r="37" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="33" t="s">
+      <c r="A37" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="35">
-        <v>1294320</v>
-      </c>
-      <c r="E37" s="36">
-        <v>1381590</v>
+      <c r="C37" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="33" t="s">
+      <c r="A38" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="35">
-        <v>790008</v>
-      </c>
-      <c r="E38" s="36">
-        <v>848880</v>
+      <c r="C38" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="21" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B39" s="24" t="s">
@@ -2209,58 +2230,58 @@
       <c r="C39" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D39" s="56">
-        <v>936858</v>
+      <c r="D39" s="28">
+        <v>927072</v>
       </c>
       <c r="E39" s="28">
         <v>1010437</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="35">
-        <v>332940</v>
-      </c>
-      <c r="E40" s="36">
-        <v>437340</v>
+      <c r="A40" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="33" t="s">
+      <c r="A41" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="34" t="s">
+      <c r="C41" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="27" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42" s="37">
+        <v>77</v>
+      </c>
+      <c r="D42" s="28">
         <v>416988</v>
       </c>
       <c r="E42" s="28">
@@ -2268,86 +2289,86 @@
       </c>
     </row>
     <row r="43" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="35">
-        <v>935640</v>
-      </c>
-      <c r="E43" s="36">
-        <v>978661</v>
+      <c r="A43" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44" s="35">
-        <v>938764</v>
-      </c>
-      <c r="E44" s="36">
-        <v>991587</v>
+      <c r="A44" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45" s="34" t="s">
+      <c r="A45" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="27" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E46" s="34" t="s">
+      <c r="A46" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="27" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
       <c r="D47" s="28">
         <f>SUM(D17:D46)</f>
-        <v>17778095</v>
+        <v>15021894</v>
       </c>
       <c r="E47" s="28">
         <f>SUM(E17:E46)</f>
-        <v>18997521</v>
+        <v>15896575</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -2396,17 +2417,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="5">
     <mergeCell ref="A47:C47"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:D4"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:D26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2019 год.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2019 год.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="9720" windowHeight="7320" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="9720" windowHeight="7320" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Август" sheetId="1" r:id="rId1"/>
     <sheet name="Сентябрь" sheetId="2" r:id="rId2"/>
+    <sheet name="Октябрь" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Август!$A$1:$E$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Октябрь!$A$1:$E$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Сентябрь!$A$1:$E$55</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="106">
   <si>
     <t>Период использования оборудования для производства продукции</t>
   </si>
@@ -356,6 +358,12 @@
   </si>
   <si>
     <t xml:space="preserve"> _______________В.Н. Сенкевич</t>
+  </si>
+  <si>
+    <t>01/10/2019 - 04/10/2019</t>
+  </si>
+  <si>
+    <t>01/10/2019 - 10/10/2019</t>
   </si>
 </sst>
 </file>
@@ -443,7 +451,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -459,6 +467,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,7 +533,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -603,6 +617,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -638,6 +655,45 @@
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -969,17 +1025,17 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="37"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -1029,20 +1085,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="39"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -1241,16 +1297,16 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="43" t="s">
+      <c r="A25" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="44" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="45">
+      <c r="D25" s="46">
         <v>3579390</v>
       </c>
       <c r="E25" s="26">
@@ -1258,12 +1314,12 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="44"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="46"/>
+      <c r="D26" s="47"/>
       <c r="E26" s="26">
         <v>578290</v>
       </c>
@@ -1609,11 +1665,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
       <c r="D47" s="28">
         <f>SUM(D17:D46)</f>
         <v>13479277</v>
@@ -1697,7 +1753,7 @@
   </sheetPr>
   <dimension ref="A2:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1775,20 +1831,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="39"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -1987,10 +2043,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="43" t="s">
+      <c r="A25" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="44" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -2004,8 +2060,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="44"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="29" t="s">
         <v>98</v>
       </c>
@@ -2357,11 +2413,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
       <c r="D47" s="28">
         <f>SUM(D17:D46)</f>
         <v>15021894</v>
@@ -2432,4 +2488,748 @@
     <brk id="5" max="34" man="1"/>
   </colBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:J54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="D2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="D3" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="33"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="D5" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>43769</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="8"/>
+      <c r="E8" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>1</v>
+      </c>
+      <c r="B16" s="11">
+        <v>2</v>
+      </c>
+      <c r="C16" s="11">
+        <v>3</v>
+      </c>
+      <c r="D16" s="11">
+        <v>4</v>
+      </c>
+      <c r="E16" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="28">
+        <v>700812</v>
+      </c>
+      <c r="E18" s="28">
+        <v>721644</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="51">
+        <v>1249024</v>
+      </c>
+      <c r="E19" s="51">
+        <v>1312507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="51">
+        <v>1405368</v>
+      </c>
+      <c r="E20" s="51">
+        <v>1447623</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="52">
+        <v>1512490</v>
+      </c>
+      <c r="E21" s="53">
+        <v>1647216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="25">
+        <v>1981511</v>
+      </c>
+      <c r="E22" s="26">
+        <v>2047806</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="57">
+        <v>1902690</v>
+      </c>
+      <c r="E25" s="58">
+        <v>1974470</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="18" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="59"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="57">
+        <v>2566080</v>
+      </c>
+      <c r="E26" s="58">
+        <v>2733394</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="51">
+        <v>777288</v>
+      </c>
+      <c r="E29" s="51">
+        <v>825840</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="52">
+        <v>442890</v>
+      </c>
+      <c r="E30" s="53">
+        <v>496706</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A33" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A34" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A36" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="52">
+        <v>1090954</v>
+      </c>
+      <c r="E36" s="53">
+        <v>1125850</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A38" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="21" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A39" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="51">
+        <v>927072</v>
+      </c>
+      <c r="E39" s="51">
+        <v>1010437</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A40" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A41" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A42" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="51">
+        <v>416988</v>
+      </c>
+      <c r="E42" s="51">
+        <v>448450</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A43" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A44" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A45" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A46" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A47" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="28">
+        <f>SUM(D17:D46)</f>
+        <v>14973167</v>
+      </c>
+      <c r="E47" s="28">
+        <f>SUM(E17:E46)</f>
+        <v>15791943</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="17"/>
+    </row>
+    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="13"/>
+    </row>
+    <row r="51" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
+    </row>
+    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A47:C47"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="5" max="34" man="1"/>
+  </colBreaks>
+</worksheet>
 </file>
--- a/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2019 год.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2019 год.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Август!$A$1:$E$55</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Октябрь!$A$1:$E$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Октябрь!$A$1:$E$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Сентябрь!$A$1:$E$55</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="110">
   <si>
     <t>Период использования оборудования для производства продукции</t>
   </si>
@@ -365,6 +365,18 @@
   <si>
     <t>01/10/2019 - 10/10/2019</t>
   </si>
+  <si>
+    <t>05/10/2019 - 17/10/2019</t>
+  </si>
+  <si>
+    <t>01/10/2019 - 15/10/2019</t>
+  </si>
+  <si>
+    <t>Формокомплект банки  1,5 л   СКО                                              тип I-82-1500-1</t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки 0.5 л.     Байрон 0.5 л.                               тип ХХI-В-30-4А-500</t>
+  </si>
 </sst>
 </file>
 
@@ -373,7 +385,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -446,6 +458,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -533,7 +552,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -620,6 +639,42 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -655,45 +710,6 @@
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1025,17 +1041,17 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -1085,20 +1101,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="40"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -1297,16 +1313,16 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="44" t="s">
+      <c r="A25" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="56" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="46">
+      <c r="D25" s="58">
         <v>3579390</v>
       </c>
       <c r="E25" s="26">
@@ -1314,12 +1330,12 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
-      <c r="B26" s="45"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="57"/>
       <c r="C26" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="47"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="26">
         <v>578290</v>
       </c>
@@ -1665,11 +1681,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
       <c r="D47" s="28">
         <f>SUM(D17:D46)</f>
         <v>13479277</v>
@@ -1831,20 +1847,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="40"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -2043,10 +2059,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="44" t="s">
+      <c r="A25" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="56" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -2060,8 +2076,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
-      <c r="B26" s="45"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="57"/>
       <c r="C26" s="29" t="s">
         <v>98</v>
       </c>
@@ -2413,11 +2429,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
       <c r="D47" s="28">
         <f>SUM(D17:D46)</f>
         <v>15021894</v>
@@ -2495,10 +2511,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J54"/>
+  <dimension ref="A2:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2575,20 +2591,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="40"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -2650,24 +2666,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="49" t="s">
+    <row r="17" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="C17" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>10</v>
       </c>
@@ -2684,58 +2700,59 @@
         <v>721644</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="49" t="s">
+    <row r="19" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="51">
+      <c r="D19" s="40">
         <v>1249024</v>
       </c>
-      <c r="E19" s="51">
+      <c r="E19" s="40">
         <v>1312507</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="49" t="s">
+    <row r="20" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="51">
-        <v>1405368</v>
-      </c>
-      <c r="E20" s="51">
-        <v>1447623</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="49" t="s">
+      <c r="C20" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="28">
+        <v>2226060</v>
+      </c>
+      <c r="E20" s="28">
+        <v>2335045</v>
+      </c>
+      <c r="F20" s="44"/>
+    </row>
+    <row r="21" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="52">
+      <c r="D21" s="41">
         <v>1512490</v>
       </c>
-      <c r="E21" s="53">
+      <c r="E21" s="42">
         <v>1647216</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
         <v>10</v>
       </c>
@@ -2752,467 +2769,478 @@
         <v>2047806</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="49" t="s">
+    <row r="23" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="49" t="s">
+      <c r="C23" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="57">
-        <v>1902690</v>
-      </c>
-      <c r="E25" s="58">
-        <v>1974470</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="18" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="59"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="48" t="s">
+      <c r="C25" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="32">
+        <v>2846745</v>
+      </c>
+      <c r="E25" s="31">
+        <v>2962109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="18" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="55"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="57">
+      <c r="D26" s="46">
         <v>2566080</v>
       </c>
-      <c r="E26" s="58">
+      <c r="E26" s="47">
         <v>2733394</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="49" t="s">
+    <row r="27" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="49" t="s">
+      <c r="C27" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="49" t="s">
+      <c r="C28" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="51">
+      <c r="D29" s="40">
         <v>777288</v>
       </c>
-      <c r="E29" s="51">
+      <c r="E29" s="40">
         <v>825840</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="49" t="s">
+    <row r="30" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="52">
+      <c r="D30" s="41">
         <v>442890</v>
       </c>
-      <c r="E30" s="53">
+      <c r="E30" s="42">
         <v>496706</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="49" t="s">
+    <row r="31" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="49" t="s">
+      <c r="C31" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="50" t="s">
+      <c r="C32" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="39" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="49" t="s">
+      <c r="A33" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="50" t="s">
+      <c r="C33" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="39" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A34" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="49" t="s">
+      <c r="A34" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="50" t="s">
+      <c r="D34" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="39" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="49" t="s">
+      <c r="A35" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="50" t="s">
+      <c r="C35" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="39" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="49" t="s">
+      <c r="A36" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C36" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="52">
+      <c r="D36" s="41">
         <v>1090954</v>
       </c>
-      <c r="E36" s="53">
+      <c r="E36" s="42">
         <v>1125850</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="49" t="s">
+      <c r="A37" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" s="50" t="s">
+      <c r="C37" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="39" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="49" t="s">
+      <c r="A38" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="50" t="s">
+      <c r="C38" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="39" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="21" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="49" t="s">
+      <c r="A39" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="D39" s="51">
+      <c r="D39" s="40">
         <v>927072</v>
       </c>
-      <c r="E39" s="51">
+      <c r="E39" s="40">
         <v>1010437</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="49" t="s">
+      <c r="A40" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40" s="50" t="s">
+      <c r="C40" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="39" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="49" t="s">
+      <c r="A41" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="50" t="s">
+      <c r="C41" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="39" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="49" t="s">
+      <c r="A42" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D42" s="51">
+      <c r="D42" s="40">
         <v>416988</v>
       </c>
-      <c r="E42" s="51">
+      <c r="E42" s="40">
         <v>448450</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="E43" s="50" t="s">
+      <c r="A43" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="39" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="49" t="s">
+      <c r="A44" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" s="50" t="s">
+      <c r="C44" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="39" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="49" t="s">
+      <c r="A45" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45" s="50" t="s">
+      <c r="C45" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="39" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="49" t="s">
+      <c r="A46" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+    </row>
+    <row r="47" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A47" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="E46" s="50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="41" t="s">
+      <c r="C47" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A48" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="28">
-        <f>SUM(D17:D46)</f>
-        <v>14973167</v>
-      </c>
-      <c r="E47" s="28">
-        <f>SUM(E17:E46)</f>
-        <v>15791943</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="17"/>
-    </row>
-    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="28">
+        <f>SUM(D17:D47)</f>
+        <v>16737914</v>
+      </c>
+      <c r="E48" s="28">
+        <f>SUM(E17:E47)</f>
+        <v>17667004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="17"/>
+    </row>
+    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D50" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-    </row>
-    <row r="51" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
+    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
+    </row>
+    <row r="52" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
+    <row r="53" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52" s="13" t="s">
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E52"/>
-    </row>
-    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
+      <c r="E53"/>
     </row>
     <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="13"/>
+    </row>
+    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D55" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3222,11 +3250,11 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A48:C48"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="5" max="34" man="1"/>

--- a/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2019 год.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2019 год.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Август!$A$1:$E$55</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Октябрь!$A$1:$E$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Октябрь!$A$1:$E$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Сентябрь!$A$1:$E$55</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="114">
   <si>
     <t>Период использования оборудования для производства продукции</t>
   </si>
@@ -376,6 +376,18 @@
   </si>
   <si>
     <t>Формокомплект бутылки 0.5 л.     Байрон 0.5 л.                               тип ХХI-В-30-4А-500</t>
+  </si>
+  <si>
+    <t>18/10/2019 - 29/10/2019</t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки 0.2 л.     Круглая 0.2 л.                               тип ХХI-В-28-1-200-5</t>
+  </si>
+  <si>
+    <t>16/10/2019 - 28/10/2019</t>
+  </si>
+  <si>
+    <t>21/10/2019 - 27/10/2019</t>
   </si>
 </sst>
 </file>
@@ -552,7 +564,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -673,6 +685,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1041,17 +1056,17 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -1101,20 +1116,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -1313,16 +1328,16 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="56" t="s">
+      <c r="A25" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="57" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="58">
+      <c r="D25" s="59">
         <v>3579390</v>
       </c>
       <c r="E25" s="26">
@@ -1330,12 +1345,12 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="B26" s="57"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="58"/>
       <c r="C26" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="59"/>
+      <c r="D26" s="60"/>
       <c r="E26" s="26">
         <v>578290</v>
       </c>
@@ -1681,11 +1696,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="53" t="s">
+      <c r="A47" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="53"/>
-      <c r="C47" s="53"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
       <c r="D47" s="28">
         <f>SUM(D17:D46)</f>
         <v>13479277</v>
@@ -1847,20 +1862,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -2059,10 +2074,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="56" t="s">
+      <c r="A25" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="57" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -2076,8 +2091,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="B26" s="57"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="58"/>
       <c r="C26" s="29" t="s">
         <v>98</v>
       </c>
@@ -2429,11 +2444,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="53" t="s">
+      <c r="A47" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="53"/>
-      <c r="C47" s="53"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
       <c r="D47" s="28">
         <f>SUM(D17:D46)</f>
         <v>15021894</v>
@@ -2511,10 +2526,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J55"/>
+  <dimension ref="A2:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A39" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2591,20 +2606,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -2676,10 +2691,10 @@
       <c r="C17" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="39" t="s">
+      <c r="D17" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="40" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2779,10 +2794,10 @@
       <c r="C23" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="39" t="s">
+      <c r="D23" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="40" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2796,18 +2811,18 @@
       <c r="C24" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="39" t="s">
+      <c r="D24" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="40" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="56" t="s">
+      <c r="A25" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="57" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -2821,8 +2836,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="B26" s="57"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="58"/>
       <c r="C26" s="45" t="s">
         <v>98</v>
       </c>
@@ -2843,10 +2858,10 @@
       <c r="C27" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="39" t="s">
+      <c r="D27" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="40" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2860,28 +2875,28 @@
       <c r="C28" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="39" t="s">
+      <c r="D28" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="40" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="38" t="s">
+      <c r="A29" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="40">
-        <v>777288</v>
-      </c>
-      <c r="E29" s="40">
-        <v>825840</v>
+      <c r="C29" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="28">
+        <v>1662780</v>
+      </c>
+      <c r="E29" s="28">
+        <v>1724962</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -2911,10 +2926,10 @@
       <c r="C31" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="39" t="s">
+      <c r="D31" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="40" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2928,10 +2943,10 @@
       <c r="C32" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="39" t="s">
+      <c r="D32" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="40" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2945,10 +2960,10 @@
       <c r="C33" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="39" t="s">
+      <c r="D33" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="40" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2962,10 +2977,10 @@
       <c r="C34" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="39" t="s">
+      <c r="D34" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="40" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2979,10 +2994,10 @@
       <c r="C35" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="39" t="s">
+      <c r="D35" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="40" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3013,10 +3028,10 @@
       <c r="C37" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" s="39" t="s">
+      <c r="D37" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="40" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3030,10 +3045,10 @@
       <c r="C38" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="39" t="s">
+      <c r="D38" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="40" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3064,10 +3079,10 @@
       <c r="C40" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40" s="39" t="s">
+      <c r="D40" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="40" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3081,10 +3096,10 @@
       <c r="C41" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="39" t="s">
+      <c r="D41" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="40" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3115,10 +3130,10 @@
       <c r="C43" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="E43" s="39" t="s">
+      <c r="D43" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="40" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3132,10 +3147,10 @@
       <c r="C44" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" s="39" t="s">
+      <c r="D44" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="40" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3149,10 +3164,10 @@
       <c r="C45" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45" s="39" t="s">
+      <c r="D45" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="40" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3163,84 +3178,107 @@
       <c r="B46" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
+      <c r="C46" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="28">
+        <v>948096</v>
+      </c>
+      <c r="E46" s="28">
+        <v>1031915</v>
+      </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="38" t="s">
+      <c r="A47" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="28">
+        <v>2527011</v>
+      </c>
+      <c r="E47" s="28">
+        <v>2734020</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A48" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="E47" s="39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="53" t="s">
+      <c r="C48" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A49" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="28">
-        <f>SUM(D17:D47)</f>
-        <v>16737914</v>
-      </c>
-      <c r="E48" s="28">
-        <f>SUM(E17:E47)</f>
-        <v>17667004</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="17"/>
-    </row>
-    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="28">
+        <f>SUM(D17:D48)</f>
+        <v>21098513</v>
+      </c>
+      <c r="E49" s="28">
+        <f>SUM(E17:E48)</f>
+        <v>22332061</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="17"/>
+    </row>
+    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D51" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-    </row>
-    <row r="52" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
+    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="13"/>
+    </row>
+    <row r="53" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
+    <row r="54" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53" s="13" t="s">
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E53"/>
-    </row>
-    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
+      <c r="E54"/>
     </row>
     <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="13"/>
+    </row>
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D56" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3250,11 +3288,11 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="52" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="5" max="34" man="1"/>

--- a/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2019 год.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2019 год.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="116">
   <si>
     <t>Период использования оборудования для производства продукции</t>
   </si>
@@ -389,6 +389,12 @@
   <si>
     <t>21/10/2019 - 27/10/2019</t>
   </si>
+  <si>
+    <t>29/10/2019 - 31/10/2019</t>
+  </si>
+  <si>
+    <t>28/10/2019 - 31/10/2019</t>
+  </si>
 </sst>
 </file>
 
@@ -397,7 +403,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -474,15 +480,8 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,12 +497,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,7 +557,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -648,44 +641,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1056,17 +1013,17 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="51"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -1116,20 +1073,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="53"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -1328,16 +1285,16 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="57" t="s">
+      <c r="A25" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="45" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="59">
+      <c r="D25" s="47">
         <v>3579390</v>
       </c>
       <c r="E25" s="26">
@@ -1345,12 +1302,12 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
-      <c r="B26" s="58"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="60"/>
+      <c r="D26" s="48"/>
       <c r="E26" s="26">
         <v>578290</v>
       </c>
@@ -1696,11 +1653,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="54" t="s">
+      <c r="A47" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
       <c r="D47" s="28">
         <f>SUM(D17:D46)</f>
         <v>13479277</v>
@@ -1862,20 +1819,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="53"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -2074,10 +2031,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="57" t="s">
+      <c r="A25" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="45" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -2091,8 +2048,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
-      <c r="B26" s="58"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="29" t="s">
         <v>98</v>
       </c>
@@ -2444,11 +2401,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="54" t="s">
+      <c r="A47" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
       <c r="D47" s="28">
         <f>SUM(D17:D46)</f>
         <v>15021894</v>
@@ -2523,13 +2480,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A2:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A39" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2606,20 +2560,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="53"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -2682,24 +2636,24 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="38" t="s">
+      <c r="A17" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="40" t="s">
+      <c r="C17" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="36" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="24" t="s">
@@ -2716,20 +2670,20 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="38" t="s">
+      <c r="A19" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="40">
-        <v>1249024</v>
-      </c>
-      <c r="E19" s="40">
-        <v>1312507</v>
+      <c r="C19" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -2748,33 +2702,33 @@
       <c r="E20" s="28">
         <v>2335045</v>
       </c>
-      <c r="F20" s="44"/>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="38" t="s">
+      <c r="A21" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="41">
-        <v>1512490</v>
-      </c>
-      <c r="E21" s="42">
-        <v>1647216</v>
+      <c r="C21" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="36" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="36" t="s">
         <v>105</v>
       </c>
       <c r="D22" s="25">
@@ -2785,105 +2739,103 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="38" t="s">
+      <c r="A23" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="40" t="s">
+      <c r="C23" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="38" t="s">
+      <c r="A24" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="40" t="s">
+      <c r="C24" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="57" t="s">
+      <c r="A25" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="45" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="32">
-        <v>2846745</v>
+      <c r="D25" s="47">
+        <v>3371625</v>
       </c>
       <c r="E25" s="31">
         <v>2962109</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="18" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="46">
-        <v>2566080</v>
-      </c>
-      <c r="E26" s="47">
-        <v>2733394</v>
+    <row r="26" spans="1:6" s="18" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="44"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="48"/>
+      <c r="E26" s="31">
+        <v>587765</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="38" t="s">
+      <c r="A27" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="40" t="s">
+      <c r="C27" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="38" t="s">
+      <c r="A28" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="40" t="s">
-        <v>58</v>
+      <c r="C28" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="28">
+        <v>523908</v>
+      </c>
+      <c r="E28" s="28">
+        <v>597582</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="36" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="24" t="s">
@@ -2893,286 +2845,286 @@
         <v>110</v>
       </c>
       <c r="D29" s="28">
-        <v>1662780</v>
+        <v>1662222</v>
       </c>
       <c r="E29" s="28">
         <v>1724962</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="38" t="s">
+      <c r="A30" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="41">
-        <v>442890</v>
-      </c>
-      <c r="E30" s="42">
-        <v>496706</v>
+      <c r="C30" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="38" t="s">
+      <c r="A31" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="40" t="s">
+      <c r="C31" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="38" t="s">
+      <c r="A32" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="40" t="s">
+      <c r="C32" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="38" t="s">
+      <c r="A33" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="40" t="s">
+      <c r="C33" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="38" t="s">
+      <c r="A34" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="40" t="s">
+      <c r="D34" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="38" t="s">
+      <c r="A35" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="40" t="s">
+      <c r="C35" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="38" t="s">
+      <c r="A36" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="41">
-        <v>1090954</v>
-      </c>
-      <c r="E36" s="42">
-        <v>1125850</v>
+      <c r="C36" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="38" t="s">
+      <c r="A37" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" s="40" t="s">
+      <c r="C37" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="38" t="s">
+      <c r="A38" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="40" t="s">
+      <c r="C38" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="21" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="38" t="s">
+      <c r="A39" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="40">
-        <v>927072</v>
-      </c>
-      <c r="E39" s="40">
-        <v>1010437</v>
+      <c r="C39" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="38" t="s">
+      <c r="A40" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40" s="40" t="s">
+      <c r="C40" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="38" t="s">
+      <c r="A41" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="40" t="s">
+      <c r="C41" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="38" t="s">
+      <c r="A42" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="C42" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="D42" s="40">
-        <v>416988</v>
-      </c>
-      <c r="E42" s="40">
-        <v>448450</v>
+      <c r="C42" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="38" t="s">
+      <c r="A43" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E43" s="40" t="s">
+      <c r="C43" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="38" t="s">
+      <c r="A44" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" s="40" t="s">
+      <c r="C44" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="38" t="s">
+      <c r="A45" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45" s="40" t="s">
+      <c r="C45" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="36" t="s">
         <v>10</v>
       </c>
       <c r="B46" s="24" t="s">
@@ -3182,14 +3134,14 @@
         <v>113</v>
       </c>
       <c r="D46" s="28">
-        <v>948096</v>
+        <v>918456</v>
       </c>
       <c r="E46" s="28">
         <v>1031915</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="48" t="s">
+      <c r="A47" s="36" t="s">
         <v>10</v>
       </c>
       <c r="B47" s="24" t="s">
@@ -3206,35 +3158,35 @@
       </c>
     </row>
     <row r="48" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="38" t="s">
+      <c r="A48" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48" s="40" t="s">
+      <c r="C48" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="54" t="s">
+      <c r="A49" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
       <c r="D49" s="28">
         <f>SUM(D17:D48)</f>
-        <v>21098513</v>
+        <v>13911605</v>
       </c>
       <c r="E49" s="28">
         <f>SUM(E17:E48)</f>
-        <v>22332061</v>
+        <v>14742848</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -3283,16 +3235,17 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D25:D26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="5" max="34" man="1"/>

--- a/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2019 год.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2019 год.xlsx
@@ -9,24 +9,27 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="9720" windowHeight="7320" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="9720" windowHeight="7320" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Август" sheetId="1" r:id="rId1"/>
     <sheet name="Сентябрь" sheetId="2" r:id="rId2"/>
     <sheet name="Октябрь" sheetId="3" r:id="rId3"/>
+    <sheet name="Ноябрь" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Август!$A$1:$E$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Ноябрь!$A$1:$E$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Октябрь!$A$1:$E$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Сентябрь!$A$1:$E$55</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="120">
   <si>
     <t>Период использования оборудования для производства продукции</t>
   </si>
@@ -394,6 +397,18 @@
   </si>
   <si>
     <t>28/10/2019 - 31/10/2019</t>
+  </si>
+  <si>
+    <t>01/11/2019 - 07/11/2019</t>
+  </si>
+  <si>
+    <t>01/11/2019 - 04/11/2019</t>
+  </si>
+  <si>
+    <t>05/11/2019 - 08/11/2019</t>
+  </si>
+  <si>
+    <t>09/11/2019 - 11/11/2019</t>
   </si>
 </sst>
 </file>
@@ -481,7 +496,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,6 +512,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,7 +578,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -645,6 +666,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1013,17 +1058,17 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -1073,20 +1118,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="41"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -1148,7 +1193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="18" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>10</v>
       </c>
@@ -1199,7 +1244,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="18" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>10</v>
       </c>
@@ -1233,7 +1278,7 @@
         <v>293466</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="18" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>10</v>
       </c>
@@ -1250,7 +1295,7 @@
         <v>1923608</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="18" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>10</v>
       </c>
@@ -1267,7 +1312,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="18" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>10</v>
       </c>
@@ -1285,16 +1330,16 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="45" t="s">
+      <c r="A25" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="53" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="47">
+      <c r="D25" s="55">
         <v>3579390</v>
       </c>
       <c r="E25" s="26">
@@ -1302,12 +1347,12 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="46"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="48"/>
+      <c r="D26" s="56"/>
       <c r="E26" s="26">
         <v>578290</v>
       </c>
@@ -1346,7 +1391,7 @@
         <v>1468280</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="18" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>10</v>
       </c>
@@ -1414,7 +1459,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="18" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>10</v>
       </c>
@@ -1653,11 +1698,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="42" t="s">
+      <c r="A47" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
       <c r="D47" s="28">
         <f>SUM(D17:D46)</f>
         <v>13479277</v>
@@ -1726,7 +1771,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="5" max="34" man="1"/>
@@ -1819,20 +1864,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="41"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -1860,7 +1905,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>4</v>
       </c>
@@ -2031,10 +2076,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="45" t="s">
+      <c r="A25" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="53" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -2048,8 +2093,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="46"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="29" t="s">
         <v>98</v>
       </c>
@@ -2401,11 +2446,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="42" t="s">
+      <c r="A47" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
       <c r="D47" s="28">
         <f>SUM(D17:D46)</f>
         <v>15021894</v>
@@ -2482,7 +2527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -2560,20 +2605,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="41"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -2601,7 +2646,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>4</v>
       </c>
@@ -2773,16 +2818,16 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="45" t="s">
+      <c r="A25" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="53" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="47">
+      <c r="D25" s="55">
         <v>3371625</v>
       </c>
       <c r="E25" s="31">
@@ -2790,12 +2835,12 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="46"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="48"/>
+      <c r="D26" s="56"/>
       <c r="E26" s="31">
         <v>587765</v>
       </c>
@@ -3175,11 +3220,11 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="42" t="s">
+      <c r="A49" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
       <c r="D49" s="28">
         <f>SUM(D17:D48)</f>
         <v>13911605</v>
@@ -3251,4 +3296,775 @@
     <brk id="5" max="34" man="1"/>
   </colBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="D2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="D3" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="33"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="D5" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>43799</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="8"/>
+      <c r="E8" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="49"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>1</v>
+      </c>
+      <c r="B16" s="11">
+        <v>2</v>
+      </c>
+      <c r="C16" s="11">
+        <v>3</v>
+      </c>
+      <c r="D16" s="11">
+        <v>4</v>
+      </c>
+      <c r="E16" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="42">
+        <v>700812</v>
+      </c>
+      <c r="E18" s="42">
+        <v>721644</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="42">
+        <v>2226060</v>
+      </c>
+      <c r="E20" s="42">
+        <v>2335045</v>
+      </c>
+      <c r="F20" s="35"/>
+    </row>
+    <row r="21" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="43">
+        <v>1981511</v>
+      </c>
+      <c r="E22" s="44">
+        <v>2047806</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="55">
+        <v>1337715</v>
+      </c>
+      <c r="E25" s="31">
+        <v>1385395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="18" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="52"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="31"/>
+    </row>
+    <row r="27" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="28">
+        <v>559188</v>
+      </c>
+      <c r="E28" s="28">
+        <v>604753</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="42">
+        <v>1662222</v>
+      </c>
+      <c r="E29" s="42">
+        <v>1724962</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="28">
+        <v>591385</v>
+      </c>
+      <c r="E32" s="28">
+        <v>658610</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A33" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A34" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A36" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A38" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="21" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A39" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A40" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A41" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="28">
+        <v>428586</v>
+      </c>
+      <c r="E41" s="28">
+        <v>453212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A42" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A43" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A45" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A46" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="42">
+        <v>918456</v>
+      </c>
+      <c r="E46" s="42">
+        <v>1031915</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A47" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="42">
+        <v>2527011</v>
+      </c>
+      <c r="E47" s="42">
+        <v>2734020</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A48" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A49" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="28">
+        <f>SUM(D17:D48)</f>
+        <v>12932946</v>
+      </c>
+      <c r="E49" s="28">
+        <f>SUM(E17:E48)</f>
+        <v>13697362</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="17"/>
+    </row>
+    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="13"/>
+    </row>
+    <row r="53" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+    </row>
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:D26"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="5" max="34" man="1"/>
+  </colBreaks>
+</worksheet>
 </file>
--- a/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2019 год.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2019 год.xlsx
@@ -19,17 +19,16 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Август!$A$1:$E$55</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Ноябрь!$A$1:$E$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Ноябрь!$A$1:$E$59</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Октябрь!$A$1:$E$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Сентябрь!$A$1:$E$55</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="127">
   <si>
     <t>Период использования оборудования для производства продукции</t>
   </si>
@@ -409,6 +408,27 @@
   </si>
   <si>
     <t>09/11/2019 - 11/11/2019</t>
+  </si>
+  <si>
+    <t>11/11/2019 - 13/11/2019</t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки 0.5 л.     Штофф Колоски 0.5 л.                    тип ХХI-В-28-2б-500-1</t>
+  </si>
+  <si>
+    <t>14/11/2019 - 17/11/2019</t>
+  </si>
+  <si>
+    <t>13/11/2019 - 19/11/2019</t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки 0.5 л.     Каласы 0.5 л.                               тип ХХI-КПМ-30-1-500-7</t>
+  </si>
+  <si>
+    <t>12/11/2019 - 14/11/2019</t>
+  </si>
+  <si>
+    <t>15/11/2019 - 18/11/2019</t>
   </si>
 </sst>
 </file>
@@ -578,7 +598,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -690,6 +710,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1058,17 +1081,17 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="47"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -1118,20 +1141,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="49"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -1193,7 +1216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="18" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>10</v>
       </c>
@@ -1244,7 +1267,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="18" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>10</v>
       </c>
@@ -1278,7 +1301,7 @@
         <v>293466</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="18" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>10</v>
       </c>
@@ -1295,7 +1318,7 @@
         <v>1923608</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="18" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>10</v>
       </c>
@@ -1312,7 +1335,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="18" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>10</v>
       </c>
@@ -1330,16 +1353,16 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="53" t="s">
+      <c r="A25" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="54" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="55">
+      <c r="D25" s="56">
         <v>3579390</v>
       </c>
       <c r="E25" s="26">
@@ -1347,12 +1370,12 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
-      <c r="B26" s="54"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="56"/>
+      <c r="D26" s="57"/>
       <c r="E26" s="26">
         <v>578290</v>
       </c>
@@ -1391,7 +1414,7 @@
         <v>1468280</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="18" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>10</v>
       </c>
@@ -1459,7 +1482,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="18" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>10</v>
       </c>
@@ -1698,11 +1721,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="50" t="s">
+      <c r="A47" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
       <c r="D47" s="28">
         <f>SUM(D17:D46)</f>
         <v>13479277</v>
@@ -1771,7 +1794,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="5" max="34" man="1"/>
@@ -1864,20 +1887,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="49"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -1905,7 +1928,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>4</v>
       </c>
@@ -2076,10 +2099,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="53" t="s">
+      <c r="A25" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="54" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -2093,8 +2116,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
-      <c r="B26" s="54"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="29" t="s">
         <v>98</v>
       </c>
@@ -2446,11 +2469,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="50" t="s">
+      <c r="A47" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
       <c r="D47" s="28">
         <f>SUM(D17:D46)</f>
         <v>15021894</v>
@@ -2605,20 +2628,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="49"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -2646,7 +2669,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>4</v>
       </c>
@@ -2818,16 +2841,16 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="53" t="s">
+      <c r="A25" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="54" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="55">
+      <c r="D25" s="56">
         <v>3371625</v>
       </c>
       <c r="E25" s="31">
@@ -2835,12 +2858,12 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
-      <c r="B26" s="54"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="56"/>
+      <c r="D26" s="57"/>
       <c r="E26" s="31">
         <v>587765</v>
       </c>
@@ -3220,11 +3243,11 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="50" t="s">
+      <c r="A49" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
       <c r="D49" s="28">
         <f>SUM(D17:D48)</f>
         <v>13911605</v>
@@ -3300,10 +3323,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J56"/>
+  <dimension ref="A2:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3380,20 +3403,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="49"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -3421,7 +3444,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>4</v>
       </c>
@@ -3525,20 +3548,20 @@
       <c r="F20" s="35"/>
     </row>
     <row r="21" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="40" t="s">
+      <c r="A21" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>58</v>
+      <c r="C21" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="28">
+        <v>1791290</v>
+      </c>
+      <c r="E21" s="28">
+        <v>1950132</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -3593,16 +3616,16 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="53" t="s">
+      <c r="A25" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="54" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="55">
+      <c r="D25" s="56">
         <v>1337715</v>
       </c>
       <c r="E25" s="31">
@@ -3610,10 +3633,10 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
-      <c r="B26" s="54"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="37"/>
-      <c r="D26" s="56"/>
+      <c r="D26" s="57"/>
       <c r="E26" s="31"/>
     </row>
     <row r="27" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -3719,20 +3742,20 @@
       </c>
     </row>
     <row r="33" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="40" t="s">
+      <c r="A33" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="42" t="s">
-        <v>58</v>
+      <c r="C33" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="28">
+        <v>485760</v>
+      </c>
+      <c r="E33" s="28">
+        <v>511220</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -3821,20 +3844,20 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="21" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="40" t="s">
+      <c r="A39" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="42" t="s">
-        <v>58</v>
+      <c r="C39" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="28">
+        <v>616712</v>
+      </c>
+      <c r="E39" s="28">
+        <v>679277</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -3974,85 +3997,119 @@
       </c>
     </row>
     <row r="48" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="40" t="s">
+      <c r="A48" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" s="28">
+        <v>466668</v>
+      </c>
+      <c r="E48" s="28">
+        <v>519471</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A49" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" s="28">
+        <v>401310</v>
+      </c>
+      <c r="E49" s="28">
+        <v>436666</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A50" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48" s="42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="50" t="s">
+      <c r="C50" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A51" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="28">
-        <f>SUM(D17:D48)</f>
-        <v>12932946</v>
-      </c>
-      <c r="E49" s="28">
-        <f>SUM(E17:E48)</f>
-        <v>13697362</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="17"/>
-    </row>
-    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="28">
+        <f>SUM(D17:D50)</f>
+        <v>16694686</v>
+      </c>
+      <c r="E51" s="28">
+        <f>SUM(E17:E50)</f>
+        <v>17794128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="17"/>
+    </row>
+    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D53" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-    </row>
-    <row r="53" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
+    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
+    </row>
+    <row r="55" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
+    <row r="56" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54" s="13" t="s">
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E54"/>
-    </row>
-    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-    </row>
-    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
+      <c r="E56"/>
+    </row>
+    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="13"/>
+    </row>
+    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D58" s="14" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A51:C51"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="A25:A26"/>

--- a/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2019 год.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2019 год.xlsx
@@ -9,17 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="9720" windowHeight="7320" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="9720" windowHeight="7320" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Август" sheetId="1" r:id="rId1"/>
     <sheet name="Сентябрь" sheetId="2" r:id="rId2"/>
     <sheet name="Октябрь" sheetId="3" r:id="rId3"/>
     <sheet name="Ноябрь" sheetId="4" r:id="rId4"/>
+    <sheet name="Декабрь" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Август!$A$1:$E$55</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Ноябрь!$A$1:$E$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Декабрь!$A$1:$E$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Ноябрь!$A$1:$E$61</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Октябрь!$A$1:$E$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Сентябрь!$A$1:$E$55</definedName>
   </definedNames>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="135">
   <si>
     <t>Период использования оборудования для производства продукции</t>
   </si>
@@ -429,6 +431,30 @@
   </si>
   <si>
     <t>15/11/2019 - 18/11/2019</t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки       «Иван Купала 0,5»                          тип XХI-В-30-4-500-3</t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки      «Брест -Колоски 0,5»                      тип XХI-B-28-2.1-500-14</t>
+  </si>
+  <si>
+    <t>Формокомплект бутылки 0.7 л.     Байрон 0.7 л.                               тип ХХI-В-30-4А-700</t>
+  </si>
+  <si>
+    <t>22/11/2019 - 25/11/2019</t>
+  </si>
+  <si>
+    <t>25/11/2019 - 30/11/2019</t>
+  </si>
+  <si>
+    <t>20/11/2019 - 30/11/2019</t>
+  </si>
+  <si>
+    <t>26/11/2019 - 30/11/2019</t>
+  </si>
+  <si>
+    <t>01/12/2019 - 02/12/2019</t>
   </si>
 </sst>
 </file>
@@ -598,7 +624,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -691,9 +717,48 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -712,43 +777,31 @@
     <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1081,17 +1134,17 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -1141,20 +1194,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="50"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -1353,16 +1406,16 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="54" t="s">
+      <c r="A25" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="48" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="56">
+      <c r="D25" s="50">
         <v>3579390</v>
       </c>
       <c r="E25" s="26">
@@ -1370,12 +1423,12 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
-      <c r="B26" s="55"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="57"/>
+      <c r="D26" s="51"/>
       <c r="E26" s="26">
         <v>578290</v>
       </c>
@@ -1721,11 +1774,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="51" t="s">
+      <c r="A47" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
       <c r="D47" s="28">
         <f>SUM(D17:D46)</f>
         <v>13479277</v>
@@ -1887,20 +1940,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="50"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -2099,10 +2152,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="54" t="s">
+      <c r="A25" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="48" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -2116,8 +2169,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
-      <c r="B26" s="55"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="29" t="s">
         <v>98</v>
       </c>
@@ -2469,11 +2522,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="51" t="s">
+      <c r="A47" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
       <c r="D47" s="28">
         <f>SUM(D17:D46)</f>
         <v>15021894</v>
@@ -2628,20 +2681,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="50"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -2841,16 +2894,16 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="54" t="s">
+      <c r="A25" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="48" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="56">
+      <c r="D25" s="50">
         <v>3371625</v>
       </c>
       <c r="E25" s="31">
@@ -2858,12 +2911,12 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
-      <c r="B26" s="55"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="57"/>
+      <c r="D26" s="51"/>
       <c r="E26" s="31">
         <v>587765</v>
       </c>
@@ -3243,11 +3296,11 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="51" t="s">
+      <c r="A49" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
       <c r="D49" s="28">
         <f>SUM(D17:D48)</f>
         <v>13911605</v>
@@ -3323,10 +3376,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J58"/>
+  <dimension ref="A2:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3403,20 +3456,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="50"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -3479,76 +3532,76 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="40" t="s">
+      <c r="A17" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="42" t="s">
+      <c r="C17" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="40" t="s">
+      <c r="A18" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="42">
-        <v>700812</v>
-      </c>
-      <c r="E18" s="42">
-        <v>721644</v>
+      <c r="C18" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="40" t="s">
+      <c r="A19" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="42" t="s">
+      <c r="C19" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" s="42">
-        <v>2226060</v>
-      </c>
-      <c r="E20" s="42">
-        <v>2335045</v>
+      <c r="A20" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>58</v>
       </c>
       <c r="F20" s="35"/>
     </row>
     <row r="21" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="37" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="24" t="s">
@@ -3565,67 +3618,67 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="40" t="s">
+      <c r="A22" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="43">
-        <v>1981511</v>
-      </c>
-      <c r="E22" s="44">
-        <v>2047806</v>
+      <c r="C22" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="25">
+        <v>1132292</v>
+      </c>
+      <c r="E22" s="26">
+        <v>1222524</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="40" t="s">
+      <c r="A23" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="42" t="s">
+      <c r="C23" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="40" t="s">
+      <c r="A24" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="42" t="s">
+      <c r="C24" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="54" t="s">
+      <c r="A25" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="48" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="56">
+      <c r="D25" s="32">
         <v>1337715</v>
       </c>
       <c r="E25" s="31">
@@ -3633,31 +3686,37 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="31"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="38">
+        <v>2074005</v>
+      </c>
+      <c r="E26" s="31">
+        <v>2166293</v>
+      </c>
     </row>
     <row r="27" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="40" t="s">
+      <c r="A27" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="42" t="s">
+      <c r="C27" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="37" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="24" t="s">
@@ -3674,58 +3733,58 @@
       </c>
     </row>
     <row r="29" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="40" t="s">
+      <c r="A29" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="42">
-        <v>1662222</v>
-      </c>
-      <c r="E29" s="42">
-        <v>1724962</v>
+      <c r="C29" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="40" t="s">
+      <c r="A30" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="42" t="s">
+      <c r="C30" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="40" t="s">
+      <c r="A31" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="42" t="s">
+      <c r="C31" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="37" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="24" t="s">
@@ -3735,14 +3794,14 @@
         <v>118</v>
       </c>
       <c r="D32" s="28">
-        <v>591385</v>
+        <v>614190</v>
       </c>
       <c r="E32" s="28">
         <v>658610</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="37" t="s">
         <v>10</v>
       </c>
       <c r="B33" s="24" t="s">
@@ -3759,95 +3818,95 @@
       </c>
     </row>
     <row r="34" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="40" t="s">
+      <c r="A34" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="42" t="s">
+      <c r="C34" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="40" t="s">
+      <c r="A35" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="42" t="s">
+      <c r="C35" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="40" t="s">
+      <c r="A36" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="42" t="s">
+      <c r="C36" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="40" t="s">
+      <c r="A37" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" s="42" t="s">
+      <c r="C37" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="40" t="s">
+      <c r="A38" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="21" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="24" t="s">
+      <c r="C38" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="48" t="s">
         <v>21</v>
       </c>
       <c r="C39" s="27" t="s">
@@ -3860,266 +3919,1140 @@
         <v>679277</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="40" t="s">
+    <row r="40" spans="1:5" s="21" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="47"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="28">
+        <f>787212+14656</f>
+        <v>801868</v>
+      </c>
+      <c r="E40" s="28">
+        <v>839549</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A41" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40" s="42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="24" t="s">
+      <c r="C41" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A42" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C42" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="D41" s="28">
-        <v>428586</v>
-      </c>
-      <c r="E41" s="28">
+      <c r="D42" s="28">
+        <v>426816</v>
+      </c>
+      <c r="E42" s="28">
         <v>453212</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" s="42" t="s">
-        <v>58</v>
-      </c>
-    </row>
     <row r="43" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="40" t="s">
+      <c r="A43" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A44" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="E43" s="42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="40" t="s">
+      <c r="C44" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A45" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" s="42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="40" t="s">
+      <c r="C45" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A46" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45" s="42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="40" t="s">
+      <c r="C46" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A47" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="28">
+        <v>468000</v>
+      </c>
+      <c r="E47" s="28">
+        <v>521755</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A48" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="C46" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="D46" s="42">
-        <v>918456</v>
-      </c>
-      <c r="E46" s="42">
-        <v>1031915</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="40" t="s">
+      <c r="C48" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A49" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C47" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="D47" s="42">
-        <v>2527011</v>
-      </c>
-      <c r="E47" s="42">
-        <v>2734020</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="24" t="s">
+      <c r="C49" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A50" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C50" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="D48" s="28">
+      <c r="D50" s="28">
         <v>466668</v>
       </c>
-      <c r="E48" s="28">
+      <c r="E50" s="28">
         <v>519471</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A49" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="24" t="s">
+    <row r="51" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A51" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C51" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="D49" s="28">
-        <v>401310</v>
-      </c>
-      <c r="E49" s="28">
-        <v>436666</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A50" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="40" t="s">
+      <c r="D51" s="28">
+        <v>491400</v>
+      </c>
+      <c r="E51" s="28">
+        <v>577433</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A52" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C50" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D50" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="E50" s="42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A51" s="51" t="s">
+      <c r="C52" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A53" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="28">
-        <f>SUM(D17:D50)</f>
-        <v>16694686</v>
-      </c>
-      <c r="E51" s="28">
-        <f>SUM(E17:E50)</f>
-        <v>17794128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="17"/>
-    </row>
-    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="28">
+        <f>SUM(D17:D52)</f>
+        <v>11265904</v>
+      </c>
+      <c r="E53" s="28">
+        <f>SUM(E17:E52)</f>
+        <v>12089624</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A54" s="15"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="17"/>
+    </row>
+    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D55" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-    </row>
-    <row r="55" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="s">
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="13"/>
+    </row>
+    <row r="57" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
+    <row r="58" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56" s="13" t="s">
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E56"/>
-    </row>
-    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
-    </row>
-    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
+      <c r="E58"/>
+    </row>
+    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="13"/>
+    </row>
+    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D60" s="14" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A51:C51"/>
+  <mergeCells count="7">
+    <mergeCell ref="A53:C53"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="38" max="4" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="5" max="34" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A36" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="D2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="D3" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="33"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="D5" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>43830</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="8"/>
+      <c r="E8" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>1</v>
+      </c>
+      <c r="B16" s="11">
+        <v>2</v>
+      </c>
+      <c r="C16" s="11">
+        <v>3</v>
+      </c>
+      <c r="D16" s="11">
+        <v>4</v>
+      </c>
+      <c r="E16" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="35"/>
+    </row>
+    <row r="21" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="55">
+        <v>1791290</v>
+      </c>
+      <c r="E21" s="55">
+        <v>1950132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="56">
+        <v>1132292</v>
+      </c>
+      <c r="E22" s="57">
+        <v>1222524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="61">
+        <v>1337715</v>
+      </c>
+      <c r="E25" s="62">
+        <v>1385395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="18" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="63"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="66">
+        <v>2074005</v>
+      </c>
+      <c r="E26" s="62">
+        <v>2166293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="55">
+        <v>559188</v>
+      </c>
+      <c r="E28" s="55">
+        <v>604753</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="55">
+        <v>614190</v>
+      </c>
+      <c r="E32" s="55">
+        <v>658610</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A33" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="55">
+        <v>485760</v>
+      </c>
+      <c r="E33" s="55">
+        <v>511220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A34" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A36" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A38" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="28">
+        <v>339660</v>
+      </c>
+      <c r="E39" s="28">
+        <v>342403</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="21" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="47"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+    </row>
+    <row r="41" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A41" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A42" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="55">
+        <v>426816</v>
+      </c>
+      <c r="E42" s="55">
+        <v>453212</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A43" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A44" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A45" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A46" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A47" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="55">
+        <v>468000</v>
+      </c>
+      <c r="E47" s="55">
+        <v>521755</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A48" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A49" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A50" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="55">
+        <v>466668</v>
+      </c>
+      <c r="E50" s="55">
+        <v>519471</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A51" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="55">
+        <v>491400</v>
+      </c>
+      <c r="E51" s="55">
+        <v>577433</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A52" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A53" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="28">
+        <f>SUM(D17:D52)</f>
+        <v>10186984</v>
+      </c>
+      <c r="E53" s="28">
+        <f>SUM(E17:E52)</f>
+        <v>10913201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A54" s="15"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="17"/>
+    </row>
+    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="13"/>
+    </row>
+    <row r="57" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E58"/>
+    </row>
+    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="13"/>
+    </row>
+    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="38" max="4" man="1"/>
+  </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="5" max="34" man="1"/>
   </colBreaks>

--- a/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2019 год.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Отчет по выпуску продукции на формокомплектах/Отчет за 2019 год.xlsx
@@ -20,17 +20,17 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Август!$A$1:$E$55</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">Декабрь!$A$1:$E$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Декабрь!$A$1:$E$60</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Ноябрь!$A$1:$E$61</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Октябрь!$A$1:$E$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Сентябрь!$A$1:$E$55</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="145">
   <si>
     <t>Период использования оборудования для производства продукции</t>
   </si>
@@ -455,6 +455,36 @@
   </si>
   <si>
     <t>01/12/2019 - 02/12/2019</t>
+  </si>
+  <si>
+    <t>01/12/2019 - 09/12/2019</t>
+  </si>
+  <si>
+    <t>03/12/2019 - 06/12/2019</t>
+  </si>
+  <si>
+    <t>07/12/2019 - 15/12/2019</t>
+  </si>
+  <si>
+    <t>10/12/2019 - 19/12/2019</t>
+  </si>
+  <si>
+    <t>20/12/2019 - 31/12/209</t>
+  </si>
+  <si>
+    <t>01/12/2019 - 18/12/2019</t>
+  </si>
+  <si>
+    <t>19/12/2019 - 26/12/2019</t>
+  </si>
+  <si>
+    <t>27/12/2019 - 31/12/2019</t>
+  </si>
+  <si>
+    <t>21/12/2019 - 25/12/2019</t>
+  </si>
+  <si>
+    <t>26/12/2019 - 31/12/2019</t>
   </si>
 </sst>
 </file>
@@ -542,7 +572,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,12 +588,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,7 +648,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -723,6 +747,12 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -759,49 +789,16 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1134,17 +1131,17 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -1194,20 +1191,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="44"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -1269,7 +1266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="18" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>10</v>
       </c>
@@ -1320,7 +1317,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="18" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>10</v>
       </c>
@@ -1354,7 +1351,7 @@
         <v>293466</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="18" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>10</v>
       </c>
@@ -1371,7 +1368,7 @@
         <v>1923608</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="18" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>10</v>
       </c>
@@ -1388,7 +1385,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="18" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>10</v>
       </c>
@@ -1406,16 +1403,16 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="48" t="s">
+      <c r="A25" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="50" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="50">
+      <c r="D25" s="52">
         <v>3579390</v>
       </c>
       <c r="E25" s="26">
@@ -1423,12 +1420,12 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="49"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="51"/>
+      <c r="D26" s="53"/>
       <c r="E26" s="26">
         <v>578290</v>
       </c>
@@ -1467,7 +1464,7 @@
         <v>1468280</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="18" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>10</v>
       </c>
@@ -1535,7 +1532,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="18" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>10</v>
       </c>
@@ -1774,11 +1771,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
       <c r="D47" s="28">
         <f>SUM(D17:D46)</f>
         <v>13479277</v>
@@ -1847,7 +1844,7 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="51" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="5" max="34" man="1"/>
@@ -1940,20 +1937,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="44"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -1981,7 +1978,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>4</v>
       </c>
@@ -2152,10 +2149,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="48" t="s">
+      <c r="A25" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="50" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -2169,8 +2166,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="18" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="49"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="29" t="s">
         <v>98</v>
       </c>
@@ -2522,11 +2519,11 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
       <c r="D47" s="28">
         <f>SUM(D17:D46)</f>
         <v>15021894</v>
@@ -2681,20 +2678,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="44"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -2722,7 +2719,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>4</v>
       </c>
@@ -2894,16 +2891,16 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="48" t="s">
+      <c r="A25" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="50" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="50">
+      <c r="D25" s="52">
         <v>3371625</v>
       </c>
       <c r="E25" s="31">
@@ -2911,12 +2908,12 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="49"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="51"/>
+      <c r="D26" s="53"/>
       <c r="E26" s="31">
         <v>587765</v>
       </c>
@@ -3296,11 +3293,11 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="45" t="s">
+      <c r="A49" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
       <c r="D49" s="28">
         <f>SUM(D17:D48)</f>
         <v>13911605</v>
@@ -3456,20 +3453,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="44"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -3497,7 +3494,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>4</v>
       </c>
@@ -3669,10 +3666,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="48" t="s">
+      <c r="A25" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="50" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -3686,8 +3683,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="49"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="39" t="s">
         <v>132</v>
       </c>
@@ -3903,10 +3900,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="48" t="s">
+      <c r="A39" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="50" t="s">
         <v>21</v>
       </c>
       <c r="C39" s="27" t="s">
@@ -3920,8 +3917,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="21" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="49"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="51"/>
       <c r="C40" s="27" t="s">
         <v>133</v>
       </c>
@@ -4138,11 +4135,11 @@
       </c>
     </row>
     <row r="53" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="45" t="s">
+      <c r="A53" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="47"/>
       <c r="D53" s="28">
         <f>SUM(D17:D52)</f>
         <v>11265904</v>
@@ -4224,8 +4221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A36" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4302,20 +4299,20 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="44"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -4343,7 +4340,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>4</v>
       </c>
@@ -4378,617 +4375,617 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="53" t="s">
+      <c r="A17" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="55" t="s">
+      <c r="C17" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="55" t="s">
+      <c r="C18" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="53" t="s">
+      <c r="A19" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="55" t="s">
-        <v>58</v>
+      <c r="C19" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="28">
+        <v>2510256</v>
+      </c>
+      <c r="E19" s="28">
+        <v>2637675</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="53" t="s">
+      <c r="A20" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="55" t="s">
-        <v>58</v>
+      <c r="C20" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="28">
+        <v>1017372</v>
+      </c>
+      <c r="E20" s="28">
+        <v>1082706</v>
       </c>
       <c r="F20" s="35"/>
     </row>
     <row r="21" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="53" t="s">
+      <c r="A21" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="55">
-        <v>1791290</v>
-      </c>
-      <c r="E21" s="55">
-        <v>1950132</v>
+      <c r="C21" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="53" t="s">
+      <c r="A22" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="56">
-        <v>1132292</v>
-      </c>
-      <c r="E22" s="57">
-        <v>1222524</v>
+      <c r="C22" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="25">
+        <v>1804915</v>
+      </c>
+      <c r="E22" s="26">
+        <v>1859301</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="53" t="s">
+      <c r="A23" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="55" t="s">
+      <c r="C23" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="53" t="s">
+      <c r="A24" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="55" t="s">
+      <c r="C24" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="18" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="59" t="s">
+      <c r="A25" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="D25" s="61">
-        <v>1337715</v>
-      </c>
-      <c r="E25" s="62">
-        <v>1385395</v>
+      <c r="C25" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="32">
+        <v>3417786</v>
+      </c>
+      <c r="E25" s="31">
+        <v>3550680</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="63"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="D26" s="66">
-        <v>2074005</v>
-      </c>
-      <c r="E26" s="62">
-        <v>2166293</v>
+      <c r="A26" s="49"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="41">
+        <v>934344</v>
+      </c>
+      <c r="E26" s="31">
+        <v>969023</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="53" t="s">
+      <c r="A27" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="55" t="s">
+      <c r="C27" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="53" t="s">
+      <c r="A28" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="55">
-        <v>559188</v>
-      </c>
-      <c r="E28" s="55">
-        <v>604753</v>
+      <c r="C28" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="28">
+        <v>1278900</v>
+      </c>
+      <c r="E28" s="28">
+        <v>1381640</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="53" t="s">
+      <c r="A29" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="55" t="s">
+      <c r="C29" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="53" t="s">
+      <c r="A30" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="55" t="s">
-        <v>58</v>
+      <c r="C30" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" s="28">
+        <v>463410</v>
+      </c>
+      <c r="E30" s="28">
+        <v>505094</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="53" t="s">
+      <c r="A31" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="55" t="s">
+      <c r="C31" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="53" t="s">
+      <c r="A32" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="55">
-        <v>614190</v>
-      </c>
-      <c r="E32" s="55">
-        <v>658610</v>
+      <c r="C32" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="53" t="s">
+      <c r="A33" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" s="55">
-        <v>485760</v>
-      </c>
-      <c r="E33" s="55">
-        <v>511220</v>
+      <c r="C33" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A34" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="53" t="s">
+      <c r="A34" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="55" t="s">
+      <c r="C34" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="53" t="s">
+      <c r="A35" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="55" t="s">
+      <c r="C35" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="53" t="s">
+      <c r="A36" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="55" t="s">
-        <v>58</v>
+      <c r="C36" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="28">
+        <v>2128893</v>
+      </c>
+      <c r="E36" s="28">
+        <v>2238094</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="53" t="s">
+      <c r="A37" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" s="55" t="s">
+      <c r="C37" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="53" t="s">
+      <c r="A38" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="55" t="s">
+      <c r="C38" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="48" t="s">
+      <c r="A39" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="28">
+      <c r="D39" s="56">
         <v>339660</v>
       </c>
-      <c r="E39" s="28">
+      <c r="E39" s="56">
         <v>342403</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="21" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
     </row>
     <row r="41" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="53" t="s">
+      <c r="A41" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="55" t="s">
+      <c r="C41" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="53" t="s">
+      <c r="A42" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="D42" s="55">
-        <v>426816</v>
-      </c>
-      <c r="E42" s="55">
-        <v>453212</v>
+      <c r="C42" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="53" t="s">
+      <c r="A43" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="E43" s="55" t="s">
+      <c r="C43" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="53" t="s">
+      <c r="A44" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" s="55" t="s">
+      <c r="C44" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="53" t="s">
+      <c r="A45" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45" s="55" t="s">
+      <c r="C45" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="53" t="s">
+      <c r="A46" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="E46" s="55" t="s">
+      <c r="C46" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="53" t="s">
+      <c r="A47" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="D47" s="55">
-        <v>468000</v>
-      </c>
-      <c r="E47" s="55">
-        <v>521755</v>
+      <c r="C47" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="53" t="s">
+      <c r="A48" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48" s="55" t="s">
+      <c r="C48" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A49" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="53" t="s">
+      <c r="A49" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C49" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="E49" s="55" t="s">
-        <v>58</v>
+      <c r="C49" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" s="28">
+        <v>1587294</v>
+      </c>
+      <c r="E49" s="28">
+        <v>1715013</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A50" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="53" t="s">
+      <c r="A50" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="C50" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="D50" s="55">
-        <v>466668</v>
-      </c>
-      <c r="E50" s="55">
-        <v>519471</v>
+      <c r="C50" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="28">
+        <v>829632</v>
+      </c>
+      <c r="E50" s="28">
+        <v>880380</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A51" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="53" t="s">
+      <c r="A51" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="D51" s="55">
-        <v>491400</v>
-      </c>
-      <c r="E51" s="55">
-        <v>577433</v>
+      <c r="C51" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="18" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A52" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="53" t="s">
+      <c r="A52" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="E52" s="55" t="s">
+      <c r="C52" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="45" t="s">
+      <c r="A53" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="47"/>
       <c r="D53" s="28">
         <f>SUM(D17:D52)</f>
-        <v>10186984</v>
+        <v>16312462</v>
       </c>
       <c r="E53" s="28">
         <f>SUM(E17:E52)</f>
-        <v>10913201</v>
+        <v>17162009</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="18" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
@@ -5037,7 +5034,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
     <mergeCell ref="A53:C53"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="B12:C12"/>
@@ -5045,6 +5042,9 @@
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
